--- a/data/234Gliuliang.xlsx
+++ b/data/234Gliuliang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="766">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2316,10 +2316,6 @@
   </si>
   <si>
     <t>5G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/11/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2363,8 +2359,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2669,7 +2666,7 @@
   <dimension ref="A1:C765"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A750" workbookViewId="0">
-      <selection activeCell="B765" sqref="B765"/>
+      <selection activeCell="A769" sqref="A769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11083,8 +11080,8 @@
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A765" t="s">
-        <v>766</v>
+      <c r="A765" s="1">
+        <v>43070</v>
       </c>
       <c r="C765">
         <v>498364.08</v>

--- a/data/234Gliuliang.xlsx
+++ b/data/234Gliuliang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="765">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2312,10 +2312,6 @@
   </si>
   <si>
     <t>4G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2663,8428 +2659,6133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C765"/>
+  <dimension ref="A1:B765"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A750" workbookViewId="0">
-      <selection activeCell="A769" sqref="A769"/>
+      <selection activeCell="F758" sqref="F758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>764</v>
       </c>
-      <c r="C1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>41641.81</v>
       </c>
-      <c r="C2">
-        <v>41641.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>43328.38</v>
       </c>
-      <c r="C3">
-        <v>43328.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>44461.46</v>
       </c>
-      <c r="C4">
-        <v>44461.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>44688.28</v>
       </c>
-      <c r="C5">
-        <v>44688.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>45888.61</v>
       </c>
-      <c r="C6">
-        <v>45888.61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>42498.67</v>
       </c>
-      <c r="C7">
-        <v>42498.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>45252.89</v>
       </c>
-      <c r="C8">
-        <v>45252.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>51111.839999999997</v>
       </c>
-      <c r="C9">
-        <v>51111.839999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>51916.34</v>
       </c>
-      <c r="C10">
-        <v>51916.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>51884.26</v>
       </c>
-      <c r="C11">
-        <v>51884.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>53784.47</v>
       </c>
-      <c r="C12">
-        <v>53784.47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>51869.59</v>
       </c>
-      <c r="C13">
-        <v>51869.59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>49111.839999999997</v>
       </c>
-      <c r="C14">
-        <v>49111.839999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>49163.82</v>
       </c>
-      <c r="C15">
-        <v>49163.82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>51671.17</v>
       </c>
-      <c r="C16">
-        <v>51671.17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>51286.31</v>
       </c>
-      <c r="C17">
-        <v>51286.31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>51228.42</v>
       </c>
-      <c r="C18">
-        <v>51228.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>50542.400000000001</v>
       </c>
-      <c r="C19">
-        <v>50542.400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>50848.94</v>
       </c>
-      <c r="C20">
-        <v>50848.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>51295.42</v>
       </c>
-      <c r="C21">
-        <v>51295.42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>51240.1</v>
       </c>
-      <c r="C22">
-        <v>51240.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>51311.12</v>
       </c>
-      <c r="C23">
-        <v>51311.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>52031.19</v>
       </c>
-      <c r="C24">
-        <v>52031.19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>51227.75</v>
       </c>
-      <c r="C25">
-        <v>51227.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>49443.47</v>
       </c>
-      <c r="C26">
-        <v>49443.47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>49430.37</v>
       </c>
-      <c r="C27">
-        <v>49430.37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>50335.1</v>
       </c>
-      <c r="C28">
-        <v>50335.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>51914.57</v>
       </c>
-      <c r="C29">
-        <v>51914.57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>52591.14</v>
       </c>
-      <c r="C30">
-        <v>52591.14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>52591.040000000001</v>
       </c>
-      <c r="C31">
-        <v>52591.040000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>53839.45</v>
       </c>
-      <c r="C32">
-        <v>53839.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>52330.55</v>
       </c>
-      <c r="C33">
-        <v>52330.55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>51291.95</v>
       </c>
-      <c r="C34">
-        <v>51291.95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>52461.22</v>
       </c>
-      <c r="C35">
-        <v>52461.22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>52753.06</v>
       </c>
-      <c r="C36">
-        <v>52753.06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>53340.82</v>
       </c>
-      <c r="C37">
-        <v>53340.82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>55023.74</v>
       </c>
-      <c r="C38">
-        <v>55023.74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>59149.17</v>
       </c>
-      <c r="C39">
-        <v>59149.17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>60972.31</v>
       </c>
-      <c r="C40">
-        <v>60972.31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>58901.46</v>
       </c>
-      <c r="C41">
-        <v>58901.46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>61982.16</v>
       </c>
-      <c r="C42">
-        <v>61982.16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>65151.31</v>
       </c>
-      <c r="C43">
-        <v>65151.31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>70022.91</v>
       </c>
-      <c r="C44">
-        <v>70022.91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>65829.259999999995</v>
       </c>
-      <c r="C45">
-        <v>65829.259999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>66019.710000000006</v>
       </c>
-      <c r="C46">
-        <v>66019.710000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>62981.51</v>
       </c>
-      <c r="C47">
-        <v>62981.51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>62601.599999999999</v>
       </c>
-      <c r="C48">
-        <v>62601.599999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>73030.080000000002</v>
       </c>
-      <c r="C49">
-        <v>73030.080000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>83731.12</v>
       </c>
-      <c r="C50">
-        <v>83731.12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>66582.64</v>
       </c>
-      <c r="C51">
-        <v>66582.64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>65673.94</v>
       </c>
-      <c r="C52">
-        <v>65673.94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>67482.91</v>
       </c>
-      <c r="C53">
-        <v>67482.91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>64354.23</v>
       </c>
-      <c r="C54">
-        <v>64354.23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>62927.69</v>
       </c>
-      <c r="C55">
-        <v>62927.69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>64720.92</v>
       </c>
-      <c r="C56">
-        <v>64720.92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>64570.53</v>
       </c>
-      <c r="C57">
-        <v>64570.53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>65726.95</v>
       </c>
-      <c r="C58">
-        <v>65726.95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>66713.179999999993</v>
       </c>
-      <c r="C59">
-        <v>66713.179999999993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>66180.600000000006</v>
       </c>
-      <c r="C60">
-        <v>66180.600000000006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>64631.75</v>
       </c>
-      <c r="C61">
-        <v>64631.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>62694.65</v>
       </c>
-      <c r="C62">
-        <v>62694.65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>65112.35</v>
       </c>
-      <c r="C63">
-        <v>65112.35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>65408.72</v>
       </c>
-      <c r="C64">
-        <v>65408.72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>66056.45</v>
       </c>
-      <c r="C65">
-        <v>66056.45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>65521.440000000002</v>
       </c>
-      <c r="C66">
-        <v>65521.440000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>67704.600000000006</v>
       </c>
-      <c r="C67">
-        <v>67704.600000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>66672.87</v>
       </c>
-      <c r="C68">
-        <v>66672.87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>69307.67</v>
       </c>
-      <c r="C69">
-        <v>69307.67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>73245.45</v>
       </c>
-      <c r="C70">
-        <v>73245.45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>74335.72</v>
       </c>
-      <c r="C71">
-        <v>74335.72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>76483.44</v>
       </c>
-      <c r="C72">
-        <v>76483.44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>74554.009999999995</v>
       </c>
-      <c r="C73">
-        <v>74554.009999999995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>76396.78</v>
       </c>
-      <c r="C74">
-        <v>76396.78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>76482.399999999994</v>
       </c>
-      <c r="C75">
-        <v>76482.399999999994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>76384.92</v>
       </c>
-      <c r="C76">
-        <v>76384.92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>77473.66</v>
       </c>
-      <c r="C77">
-        <v>77473.66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>80076.960000000006</v>
       </c>
-      <c r="C78">
-        <v>80076.960000000006</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>82250.850000000006</v>
       </c>
-      <c r="C79">
-        <v>82250.850000000006</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>85195.4</v>
       </c>
-      <c r="C80">
-        <v>85195.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>84564.79</v>
       </c>
-      <c r="C81">
-        <v>84564.79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>73060.100000000006</v>
       </c>
-      <c r="C82">
-        <v>73060.100000000006</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>80006.84</v>
       </c>
-      <c r="C83">
-        <v>80006.84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>78465.78</v>
       </c>
-      <c r="C84">
-        <v>78465.78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>78599.58</v>
       </c>
-      <c r="C85">
-        <v>78599.58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>80566.880000000005</v>
       </c>
-      <c r="C86">
-        <v>80566.880000000005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>90443.49</v>
       </c>
-      <c r="C87">
-        <v>90443.49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>100565.02</v>
       </c>
-      <c r="C88">
-        <v>100565.02</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>90786.98</v>
       </c>
-      <c r="C89">
-        <v>90786.98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>90972.98</v>
       </c>
-      <c r="C90">
-        <v>90972.98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>93592.05</v>
       </c>
-      <c r="C91">
-        <v>93592.05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>91865.39</v>
       </c>
-      <c r="C92">
-        <v>91865.39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>93716.76</v>
       </c>
-      <c r="C93">
-        <v>93716.76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>95958.71</v>
       </c>
-      <c r="C94">
-        <v>95958.71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>95348.88</v>
       </c>
-      <c r="C95">
-        <v>95348.88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>95033.82</v>
       </c>
-      <c r="C96">
-        <v>95033.82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>94491.42</v>
       </c>
-      <c r="C97">
-        <v>94491.42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>91610.75</v>
       </c>
-      <c r="C98">
-        <v>91610.75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>117934.3</v>
       </c>
-      <c r="C99">
-        <v>117934.3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>98728.52</v>
       </c>
-      <c r="C100">
-        <v>98728.52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>93578.3</v>
       </c>
-      <c r="C101">
-        <v>93578.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>95837.03</v>
       </c>
-      <c r="C102">
-        <v>95837.03</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>98835.13</v>
       </c>
-      <c r="C103">
-        <v>98835.13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104">
         <v>85524.42</v>
       </c>
-      <c r="C104">
-        <v>85524.42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>87200.63</v>
       </c>
-      <c r="C105">
-        <v>87200.63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>88559.679999999993</v>
       </c>
-      <c r="C106">
-        <v>88559.679999999993</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>85030.95</v>
       </c>
-      <c r="C107">
-        <v>85030.95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108">
         <v>92361.26</v>
       </c>
-      <c r="C108">
-        <v>92361.26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>88380.02</v>
       </c>
-      <c r="C109">
-        <v>88380.02</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>76996.58</v>
       </c>
-      <c r="C110">
-        <v>76996.58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>77406.23</v>
       </c>
-      <c r="C111">
-        <v>77406.23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112">
         <v>80288.25</v>
       </c>
-      <c r="C112">
-        <v>80288.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>82668.67</v>
       </c>
-      <c r="C113">
-        <v>82668.67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>86667.17</v>
       </c>
-      <c r="C114">
-        <v>86667.17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>89489.26</v>
       </c>
-      <c r="C115">
-        <v>89489.26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>89792.87</v>
       </c>
-      <c r="C116">
-        <v>89792.87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117">
         <v>89798.48</v>
       </c>
-      <c r="C117">
-        <v>89798.48</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>93400.57</v>
       </c>
-      <c r="C118">
-        <v>93400.57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>93111.81</v>
       </c>
-      <c r="C119">
-        <v>93111.81</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>93148.55</v>
       </c>
-      <c r="C120">
-        <v>93148.55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>100536.54</v>
       </c>
-      <c r="C121">
-        <v>100536.54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>99322.08</v>
       </c>
-      <c r="C122">
-        <v>99322.08</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>101587.55</v>
       </c>
-      <c r="C123">
-        <v>101587.55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>130028.76</v>
       </c>
-      <c r="C124">
-        <v>130028.76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>132100.15</v>
       </c>
-      <c r="C125">
-        <v>132100.15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>123647.34</v>
       </c>
-      <c r="C126">
-        <v>123647.34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>124203.66</v>
       </c>
-      <c r="C127">
-        <v>124203.66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>124608</v>
       </c>
-      <c r="C128">
-        <v>124608</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>120970.59</v>
       </c>
-      <c r="C129">
-        <v>120970.59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>121825.81</v>
       </c>
-      <c r="C130">
-        <v>121825.81</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
         <v>114462.9</v>
       </c>
-      <c r="C131">
-        <v>114462.9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>107780.11</v>
       </c>
-      <c r="C132">
-        <v>107780.11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>103245.85</v>
       </c>
-      <c r="C133">
-        <v>103245.85</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>101061.98</v>
       </c>
-      <c r="C134">
-        <v>101061.98</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>101694.67</v>
       </c>
-      <c r="C135">
-        <v>101694.67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>100363.6</v>
       </c>
-      <c r="C136">
-        <v>100363.6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>106985.57</v>
       </c>
-      <c r="C137">
-        <v>106985.57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>105887.55</v>
       </c>
-      <c r="C138">
-        <v>105887.55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>113275.56</v>
       </c>
-      <c r="C139">
-        <v>113275.56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>100524.82</v>
       </c>
-      <c r="C140">
-        <v>100524.82</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141">
         <v>98879.41</v>
       </c>
-      <c r="C141">
-        <v>98879.41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>103375.14</v>
       </c>
-      <c r="C142">
-        <v>103375.14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>103166.08</v>
       </c>
-      <c r="C143">
-        <v>103166.08</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
         <v>103077.73</v>
       </c>
-      <c r="C144">
-        <v>103077.73</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>108609.37</v>
       </c>
-      <c r="C145">
-        <v>108609.37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>107664.46</v>
       </c>
-      <c r="C146">
-        <v>107664.46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147">
         <v>116371.33</v>
       </c>
-      <c r="C147">
-        <v>116371.33</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>118178.89</v>
       </c>
-      <c r="C148">
-        <v>118178.89</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>109527.56</v>
       </c>
-      <c r="C149">
-        <v>109527.56</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>122732.75</v>
       </c>
-      <c r="C150">
-        <v>122732.75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>119333.08</v>
       </c>
-      <c r="C151">
-        <v>119333.08</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>116344.55</v>
       </c>
-      <c r="C152">
-        <v>116344.55</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>118661.61</v>
       </c>
-      <c r="C153">
-        <v>118661.61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>116166.7</v>
       </c>
-      <c r="C154">
-        <v>116166.7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>123533.15</v>
       </c>
-      <c r="C155">
-        <v>123533.15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>119871.82</v>
       </c>
-      <c r="C156">
-        <v>119871.82</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157">
         <v>119630.34</v>
       </c>
-      <c r="C157">
-        <v>119630.34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>112462.77</v>
       </c>
-      <c r="C158">
-        <v>112462.77</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>110431.02</v>
       </c>
-      <c r="C159">
-        <v>110431.02</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>111522.88</v>
       </c>
-      <c r="C160">
-        <v>111522.88</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>111729.15</v>
       </c>
-      <c r="C161">
-        <v>111729.15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>111731.18</v>
       </c>
-      <c r="C162">
-        <v>111731.18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>113917.2</v>
       </c>
-      <c r="C163">
-        <v>113917.2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164">
         <v>112741.24</v>
       </c>
-      <c r="C164">
-        <v>112741.24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>108860.65</v>
       </c>
-      <c r="C165">
-        <v>108860.65</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>108325.08</v>
       </c>
-      <c r="C166">
-        <v>108325.08</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>111029.64</v>
       </c>
-      <c r="C167">
-        <v>111029.64</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>109723.04</v>
       </c>
-      <c r="C168">
-        <v>109723.04</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>115598.04</v>
       </c>
-      <c r="C169">
-        <v>115598.04</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>110695.34</v>
       </c>
-      <c r="C170">
-        <v>110695.34</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>101586.46</v>
       </c>
-      <c r="C171">
-        <v>101586.46</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>97232.73</v>
       </c>
-      <c r="C172">
-        <v>97232.73</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>95339.839999999997</v>
       </c>
-      <c r="C173">
-        <v>95339.839999999997</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>98093.759999999995</v>
       </c>
-      <c r="C174">
-        <v>98093.759999999995</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>100410</v>
       </c>
-      <c r="C175">
-        <v>100410</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>109801.31</v>
       </c>
-      <c r="C176">
-        <v>109801.31</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177">
         <v>114313.89</v>
       </c>
-      <c r="C177">
-        <v>114313.89</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>118546.62</v>
       </c>
-      <c r="C178">
-        <v>118546.62</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>118488.31</v>
       </c>
-      <c r="C179">
-        <v>118488.31</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>116523.68</v>
       </c>
-      <c r="C180">
-        <v>116523.68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>110153.44</v>
       </c>
-      <c r="C181">
-        <v>110153.44</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>113501.57</v>
       </c>
-      <c r="C182">
-        <v>113501.57</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>114867.02</v>
       </c>
-      <c r="C183">
-        <v>114867.02</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184">
         <v>116122.65</v>
       </c>
-      <c r="C184">
-        <v>116122.65</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>115426.69</v>
       </c>
-      <c r="C185">
-        <v>115426.69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>111448.35</v>
       </c>
-      <c r="C186">
-        <v>111448.35</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187">
         <v>112898.32</v>
       </c>
-      <c r="C187">
-        <v>112898.32</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188">
         <v>112418.1</v>
       </c>
-      <c r="C188">
-        <v>112418.1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189">
         <v>113480.36</v>
       </c>
-      <c r="C189">
-        <v>113480.36</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190">
         <v>116906.15</v>
       </c>
-      <c r="C190">
-        <v>116906.15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191">
         <v>113784.1</v>
       </c>
-      <c r="C191">
-        <v>113784.1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192">
         <v>112720.84</v>
       </c>
-      <c r="C192">
-        <v>112720.84</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193">
         <v>109578.69</v>
       </c>
-      <c r="C193">
-        <v>109578.69</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194">
         <v>108683.3</v>
       </c>
-      <c r="C194">
-        <v>108683.3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195">
         <v>108048.22</v>
       </c>
-      <c r="C195">
-        <v>108048.22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196">
         <v>108477.08</v>
       </c>
-      <c r="C196">
-        <v>108477.08</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197">
         <v>109134.21</v>
       </c>
-      <c r="C197">
-        <v>109134.21</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198">
         <v>108709.75999999999</v>
       </c>
-      <c r="C198">
-        <v>108709.75999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199">
         <v>107592.14</v>
       </c>
-      <c r="C199">
-        <v>107592.14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200">
         <v>106646.43</v>
       </c>
-      <c r="C200">
-        <v>106646.43</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201">
         <v>101949.03</v>
       </c>
-      <c r="C201">
-        <v>101949.03</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202">
         <v>102969.7</v>
       </c>
-      <c r="C202">
-        <v>102969.7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203">
         <v>93362.44</v>
       </c>
-      <c r="C203">
-        <v>93362.44</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204">
         <v>103049.51</v>
       </c>
-      <c r="C204">
-        <v>103049.51</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205">
         <v>105430.73</v>
       </c>
-      <c r="C205">
-        <v>105430.73</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206">
         <v>110275.96</v>
       </c>
-      <c r="C206">
-        <v>110275.96</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207">
         <v>118505.86</v>
       </c>
-      <c r="C207">
-        <v>118505.86</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208">
         <v>123814.73</v>
       </c>
-      <c r="C208">
-        <v>123814.73</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209">
         <v>124462.28</v>
       </c>
-      <c r="C209">
-        <v>124462.28</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210">
         <v>126498.29</v>
       </c>
-      <c r="C210">
-        <v>126498.29</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211">
         <v>126515.32</v>
       </c>
-      <c r="C211">
-        <v>126515.32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212">
         <v>124845.34</v>
       </c>
-      <c r="C212">
-        <v>124845.34</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213">
         <v>122748.54</v>
       </c>
-      <c r="C213">
-        <v>122748.54</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214">
         <v>115164.73</v>
       </c>
-      <c r="C214">
-        <v>115164.73</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215">
         <v>119818.37</v>
       </c>
-      <c r="C215">
-        <v>119818.37</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216">
         <v>118090.03</v>
       </c>
-      <c r="C216">
-        <v>118090.03</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217">
         <v>122369.47</v>
       </c>
-      <c r="C217">
-        <v>122369.47</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218">
         <v>123131.5</v>
       </c>
-      <c r="C218">
-        <v>123131.5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219">
         <v>118387.79</v>
       </c>
-      <c r="C219">
-        <v>118387.79</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220">
         <v>115124.17</v>
       </c>
-      <c r="C220">
-        <v>115124.17</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221">
         <v>108218.38</v>
       </c>
-      <c r="C221">
-        <v>108218.38</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222">
         <v>112604.11</v>
       </c>
-      <c r="C222">
-        <v>112604.11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223">
         <v>111365.08</v>
       </c>
-      <c r="C223">
-        <v>111365.08</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224">
         <v>111429.51</v>
       </c>
-      <c r="C224">
-        <v>111429.51</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225">
         <v>114149.46</v>
       </c>
-      <c r="C225">
-        <v>114149.46</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226">
         <v>111660.78</v>
       </c>
-      <c r="C226">
-        <v>111660.78</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227">
         <v>109053.19</v>
       </c>
-      <c r="C227">
-        <v>109053.19</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228">
         <v>106093.61</v>
       </c>
-      <c r="C228">
-        <v>106093.61</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229">
         <v>110389.65</v>
       </c>
-      <c r="C229">
-        <v>110389.65</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230">
         <v>107576.57</v>
       </c>
-      <c r="C230">
-        <v>107576.57</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231">
         <v>106934.18</v>
       </c>
-      <c r="C231">
-        <v>106934.18</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232">
         <v>110764.21</v>
       </c>
-      <c r="C232">
-        <v>110764.21</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233">
         <v>107670.45</v>
       </c>
-      <c r="C233">
-        <v>107670.45</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234">
         <v>106548.42</v>
       </c>
-      <c r="C234">
-        <v>106548.42</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235">
         <v>100147.22</v>
       </c>
-      <c r="C235">
-        <v>100147.22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236">
         <v>109838.47</v>
       </c>
-      <c r="C236">
-        <v>109838.47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237">
         <v>116943.45</v>
       </c>
-      <c r="C237">
-        <v>116943.45</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238">
         <v>120746.33</v>
       </c>
-      <c r="C238">
-        <v>120746.33</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239">
         <v>126009.15</v>
       </c>
-      <c r="C239">
-        <v>126009.15</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240">
         <v>130524.16</v>
       </c>
-      <c r="C240">
-        <v>130524.16</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241">
         <v>129734.31</v>
       </c>
-      <c r="C241">
-        <v>129734.31</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242">
         <v>128622.53</v>
       </c>
-      <c r="C242">
-        <v>128622.53</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243">
         <v>123977.44</v>
       </c>
-      <c r="C243">
-        <v>123977.44</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244">
         <v>126523.14</v>
       </c>
-      <c r="C244">
-        <v>126523.14</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245">
         <v>135808.79999999999</v>
       </c>
-      <c r="C245">
-        <v>135808.79999999999</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246">
         <v>121936.04</v>
       </c>
-      <c r="C246">
-        <v>121936.04</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247">
         <v>119577.8</v>
       </c>
-      <c r="C247">
-        <v>119577.8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248">
         <v>115823.17</v>
       </c>
-      <c r="C248">
-        <v>115823.17</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249">
         <v>115628.67</v>
       </c>
-      <c r="C249">
-        <v>115628.67</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250">
         <v>116940.9</v>
       </c>
-      <c r="C250">
-        <v>116940.9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251">
         <v>118369.23</v>
       </c>
-      <c r="C251">
-        <v>118369.23</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252">
         <v>116481.07</v>
       </c>
-      <c r="C252">
-        <v>116481.07</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253">
         <v>120172.31</v>
       </c>
-      <c r="C253">
-        <v>120172.31</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254">
         <v>119400.69</v>
       </c>
-      <c r="C254">
-        <v>119400.69</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255">
         <v>113974.04</v>
       </c>
-      <c r="C255">
-        <v>113974.04</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256">
         <v>109984.83</v>
       </c>
-      <c r="C256">
-        <v>109984.83</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257">
         <v>109945.60000000001</v>
       </c>
-      <c r="C257">
-        <v>109945.60000000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258">
         <v>106007.76</v>
       </c>
-      <c r="C258">
-        <v>106007.76</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259">
         <v>112051.19</v>
       </c>
-      <c r="C259">
-        <v>112051.19</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260">
         <v>113027.17</v>
       </c>
-      <c r="C260">
-        <v>113027.17</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261">
         <v>114833.35</v>
       </c>
-      <c r="C261">
-        <v>114833.35</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262">
         <v>109031.75</v>
       </c>
-      <c r="C262">
-        <v>109031.75</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263">
         <v>105409.65</v>
       </c>
-      <c r="C263">
-        <v>105409.65</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264">
         <v>112522.48</v>
       </c>
-      <c r="C264">
-        <v>112522.48</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265">
         <v>110937.85</v>
       </c>
-      <c r="C265">
-        <v>110937.85</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266">
         <v>114557.01</v>
       </c>
-      <c r="C266">
-        <v>114557.01</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>266</v>
       </c>
       <c r="B267">
         <v>120243.35</v>
       </c>
-      <c r="C267">
-        <v>120243.35</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268">
         <v>126822.31</v>
       </c>
-      <c r="C268">
-        <v>126822.31</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269">
         <v>127741.73</v>
       </c>
-      <c r="C269">
-        <v>127741.73</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270">
         <v>130975.87</v>
       </c>
-      <c r="C270">
-        <v>130975.87</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271">
         <v>131849.57999999999</v>
       </c>
-      <c r="C271">
-        <v>131849.57999999999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272">
         <v>130668.36</v>
       </c>
-      <c r="C272">
-        <v>130668.36</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273">
         <v>131004.48</v>
       </c>
-      <c r="C273">
-        <v>131004.48</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274">
         <v>127013.48</v>
       </c>
-      <c r="C274">
-        <v>127013.48</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275">
         <v>123874.79</v>
       </c>
-      <c r="C275">
-        <v>123874.79</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276">
         <v>121900.95</v>
       </c>
-      <c r="C276">
-        <v>121900.95</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277">
         <v>123164.2</v>
       </c>
-      <c r="C277">
-        <v>123164.2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278">
         <v>125557.7</v>
       </c>
-      <c r="C278">
-        <v>125557.7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279">
         <v>125892.24</v>
       </c>
-      <c r="C279">
-        <v>125892.24</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280">
         <v>124095.49</v>
       </c>
-      <c r="C280">
-        <v>124095.49</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281">
         <v>124842.11</v>
       </c>
-      <c r="C281">
-        <v>124842.11</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282">
         <v>122204.57</v>
       </c>
-      <c r="C282">
-        <v>122204.57</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283">
         <v>118412.2</v>
       </c>
-      <c r="C283">
-        <v>118412.2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284">
         <v>116645.06</v>
       </c>
-      <c r="C284">
-        <v>116645.06</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285">
         <v>119034.19</v>
       </c>
-      <c r="C285">
-        <v>119034.19</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286">
         <v>116652.7</v>
       </c>
-      <c r="C286">
-        <v>116652.7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287">
         <v>116400.8</v>
       </c>
-      <c r="C287">
-        <v>116400.8</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288">
         <v>115751.29</v>
       </c>
-      <c r="C288">
-        <v>115751.29</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289">
         <v>114166.67</v>
       </c>
-      <c r="C289">
-        <v>114166.67</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290">
         <v>102042.45</v>
       </c>
-      <c r="C290">
-        <v>102042.45</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291">
         <v>108931.01</v>
       </c>
-      <c r="C291">
-        <v>108931.01</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292">
         <v>88437.85</v>
       </c>
-      <c r="C292">
-        <v>88437.85</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293">
         <v>115208.89</v>
       </c>
-      <c r="C293">
-        <v>115208.89</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294">
         <v>111490.46</v>
       </c>
-      <c r="C294">
-        <v>111490.46</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295">
         <v>111255.99</v>
       </c>
-      <c r="C295">
-        <v>111255.99</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296">
         <v>115222.69</v>
       </c>
-      <c r="C296">
-        <v>115222.69</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297">
         <v>115817.8</v>
       </c>
-      <c r="C297">
-        <v>115817.8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298">
         <v>117368.28</v>
       </c>
-      <c r="C298">
-        <v>117368.28</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>298</v>
       </c>
       <c r="B299">
         <v>129819.89</v>
       </c>
-      <c r="C299">
-        <v>129819.89</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>299</v>
       </c>
       <c r="B300">
         <v>133839.67999999999</v>
       </c>
-      <c r="C300">
-        <v>133839.67999999999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="B301">
         <v>122918.67</v>
       </c>
-      <c r="C301">
-        <v>122918.67</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>301</v>
       </c>
       <c r="B302">
         <v>137376.18</v>
       </c>
-      <c r="C302">
-        <v>137376.18</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>302</v>
       </c>
       <c r="B303">
         <v>139178.92000000001</v>
       </c>
-      <c r="C303">
-        <v>139178.92000000001</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>303</v>
       </c>
       <c r="B304">
         <v>129890.43</v>
       </c>
-      <c r="C304">
-        <v>129890.43</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>304</v>
       </c>
       <c r="B305">
         <v>133699.12</v>
       </c>
-      <c r="C305">
-        <v>133699.12</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>305</v>
       </c>
       <c r="B306">
         <v>130604.23</v>
       </c>
-      <c r="C306">
-        <v>130604.23</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>306</v>
       </c>
       <c r="B307">
         <v>106303.06</v>
       </c>
-      <c r="C307">
-        <v>106303.06</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>307</v>
       </c>
       <c r="B308">
         <v>140295.5</v>
       </c>
-      <c r="C308">
-        <v>140295.5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>308</v>
       </c>
       <c r="B309">
         <v>136519.25</v>
       </c>
-      <c r="C309">
-        <v>136519.25</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>309</v>
       </c>
       <c r="B310">
         <v>134051.24</v>
       </c>
-      <c r="C310">
-        <v>134051.24</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>310</v>
       </c>
       <c r="B311">
         <v>134420.24</v>
       </c>
-      <c r="C311">
-        <v>134420.24</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>311</v>
       </c>
       <c r="B312">
         <v>140696.89000000001</v>
       </c>
-      <c r="C312">
-        <v>140696.89000000001</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>312</v>
       </c>
       <c r="B313">
         <v>129628.77</v>
       </c>
-      <c r="C313">
-        <v>129628.77</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>313</v>
       </c>
       <c r="B314">
         <v>131344.76999999999</v>
       </c>
-      <c r="C314">
-        <v>131344.76999999999</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>314</v>
       </c>
       <c r="B315">
         <v>138355.39000000001</v>
       </c>
-      <c r="C315">
-        <v>138355.39000000001</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>315</v>
       </c>
       <c r="B316">
         <v>148014.64000000001</v>
       </c>
-      <c r="C316">
-        <v>148014.64000000001</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>316</v>
       </c>
       <c r="B317">
         <v>148732.04</v>
       </c>
-      <c r="C317">
-        <v>148732.04</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>317</v>
       </c>
       <c r="B318">
         <v>141460.82999999999</v>
       </c>
-      <c r="C318">
-        <v>141460.82999999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>318</v>
       </c>
       <c r="B319">
         <v>119908.27</v>
       </c>
-      <c r="C319">
-        <v>119908.27</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>319</v>
       </c>
       <c r="B320">
         <v>131107.89000000001</v>
       </c>
-      <c r="C320">
-        <v>131107.89000000001</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>320</v>
       </c>
       <c r="B321">
         <v>146649.67000000001</v>
       </c>
-      <c r="C321">
-        <v>146649.67000000001</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>321</v>
       </c>
       <c r="B322">
         <v>146950.74</v>
       </c>
-      <c r="C322">
-        <v>146950.74</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>322</v>
       </c>
       <c r="B323">
         <v>150766.32999999999</v>
       </c>
-      <c r="C323">
-        <v>150766.32999999999</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>323</v>
       </c>
       <c r="B324">
         <v>148724.04</v>
       </c>
-      <c r="C324">
-        <v>148724.04</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>324</v>
       </c>
       <c r="B325">
         <v>145830.54</v>
       </c>
-      <c r="C325">
-        <v>145830.54</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>325</v>
       </c>
       <c r="B326">
         <v>147106.69</v>
       </c>
-      <c r="C326">
-        <v>147106.69</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>326</v>
       </c>
       <c r="B327">
         <v>148134.26999999999</v>
       </c>
-      <c r="C327">
-        <v>148134.26999999999</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>327</v>
       </c>
       <c r="B328">
         <v>157518.95000000001</v>
       </c>
-      <c r="C328">
-        <v>157518.95000000001</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>328</v>
       </c>
       <c r="B329">
         <v>144530.07</v>
       </c>
-      <c r="C329">
-        <v>144530.07</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>329</v>
       </c>
       <c r="B330">
         <v>143545.72</v>
       </c>
-      <c r="C330">
-        <v>143545.72</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>330</v>
       </c>
       <c r="B331">
         <v>139205.93</v>
       </c>
-      <c r="C331">
-        <v>139205.93</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>331</v>
       </c>
       <c r="B332">
         <v>142550.35999999999</v>
       </c>
-      <c r="C332">
-        <v>142550.35999999999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>332</v>
       </c>
       <c r="B333">
         <v>146240.43</v>
       </c>
-      <c r="C333">
-        <v>146240.43</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>333</v>
       </c>
       <c r="B334">
         <v>152039.87</v>
       </c>
-      <c r="C334">
-        <v>152039.87</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>334</v>
       </c>
       <c r="B335">
         <v>152722.91</v>
       </c>
-      <c r="C335">
-        <v>152722.91</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>335</v>
       </c>
       <c r="B336">
         <v>149775.89000000001</v>
       </c>
-      <c r="C336">
-        <v>149775.89000000001</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>336</v>
       </c>
       <c r="B337">
         <v>151793.87</v>
       </c>
-      <c r="C337">
-        <v>151793.87</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>337</v>
       </c>
       <c r="B338">
         <v>146253.54999999999</v>
       </c>
-      <c r="C338">
-        <v>146253.54999999999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>338</v>
       </c>
       <c r="B339">
         <v>140683.45000000001</v>
       </c>
-      <c r="C339">
-        <v>140683.45000000001</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>339</v>
       </c>
       <c r="B340">
         <v>154134.44</v>
       </c>
-      <c r="C340">
-        <v>154134.44</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>340</v>
       </c>
       <c r="B341">
         <v>153253.41</v>
       </c>
-      <c r="C341">
-        <v>153253.41</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>341</v>
       </c>
       <c r="B342">
         <v>159658.73000000001</v>
       </c>
-      <c r="C342">
-        <v>159658.73000000001</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>342</v>
       </c>
       <c r="B343">
         <v>168852.38</v>
       </c>
-      <c r="C343">
-        <v>168852.38</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>343</v>
       </c>
       <c r="B344">
         <v>175605.36</v>
       </c>
-      <c r="C344">
-        <v>175605.36</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>344</v>
       </c>
       <c r="B345">
         <v>176249.71</v>
       </c>
-      <c r="C345">
-        <v>176249.71</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>345</v>
       </c>
       <c r="B346">
         <v>173825.61</v>
       </c>
-      <c r="C346">
-        <v>173825.61</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>346</v>
       </c>
       <c r="B347">
         <v>170752.17</v>
       </c>
-      <c r="C347">
-        <v>170752.17</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>347</v>
       </c>
       <c r="B348">
         <v>171595.28</v>
       </c>
-      <c r="C348">
-        <v>171595.28</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>348</v>
       </c>
       <c r="B349">
         <v>169557.74</v>
       </c>
-      <c r="C349">
-        <v>169557.74</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>349</v>
       </c>
       <c r="B350">
         <v>168596.66</v>
       </c>
-      <c r="C350">
-        <v>168596.66</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>350</v>
       </c>
       <c r="B351">
         <v>173452.16</v>
       </c>
-      <c r="C351">
-        <v>173452.16</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>351</v>
       </c>
       <c r="B352">
         <v>175956.69</v>
       </c>
-      <c r="C352">
-        <v>175956.69</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>352</v>
       </c>
       <c r="B353">
         <v>173713.4</v>
       </c>
-      <c r="C353">
-        <v>173713.4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>353</v>
       </c>
       <c r="B354">
         <v>173279.65</v>
       </c>
-      <c r="C354">
-        <v>173279.65</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>354</v>
       </c>
       <c r="B355">
         <v>177479.32</v>
       </c>
-      <c r="C355">
-        <v>177479.32</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>355</v>
       </c>
       <c r="B356">
         <v>187911.7</v>
       </c>
-      <c r="C356">
-        <v>187911.7</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>356</v>
       </c>
       <c r="B357">
         <v>191065.81</v>
       </c>
-      <c r="C357">
-        <v>191065.81</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>357</v>
       </c>
       <c r="B358">
         <v>180856.16</v>
       </c>
-      <c r="C358">
-        <v>180856.16</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>358</v>
       </c>
       <c r="B359">
         <v>169294.22</v>
       </c>
-      <c r="C359">
-        <v>169294.22</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>359</v>
       </c>
       <c r="B360">
         <v>169243.8</v>
       </c>
-      <c r="C360">
-        <v>169243.8</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>360</v>
       </c>
       <c r="B361">
         <v>205667.3</v>
       </c>
-      <c r="C361">
-        <v>205667.3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>361</v>
       </c>
       <c r="B362">
         <v>154342.1</v>
       </c>
-      <c r="C362">
-        <v>154342.1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>362</v>
       </c>
       <c r="B363">
         <v>158334.60999999999</v>
       </c>
-      <c r="C363">
-        <v>158334.60999999999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>363</v>
       </c>
       <c r="B364">
         <v>161138.62</v>
       </c>
-      <c r="C364">
-        <v>161138.62</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>364</v>
       </c>
       <c r="B365">
         <v>169301.16</v>
       </c>
-      <c r="C365">
-        <v>169301.16</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>365</v>
       </c>
       <c r="B366">
         <v>169598.71</v>
       </c>
-      <c r="C366">
-        <v>169598.71</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>366</v>
       </c>
       <c r="B367">
         <v>167571.71</v>
       </c>
-      <c r="C367">
-        <v>167571.71</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>367</v>
       </c>
       <c r="B368">
         <v>168606.24</v>
       </c>
-      <c r="C368">
-        <v>168606.24</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>368</v>
       </c>
       <c r="B369">
         <v>170760.92</v>
       </c>
-      <c r="C369">
-        <v>170760.92</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>369</v>
       </c>
       <c r="B370">
         <v>171806.07999999999</v>
       </c>
-      <c r="C370">
-        <v>171806.07999999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>370</v>
       </c>
       <c r="B371">
         <v>175511.7</v>
       </c>
-      <c r="C371">
-        <v>175511.7</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>371</v>
       </c>
       <c r="B372">
         <v>174456.31</v>
       </c>
-      <c r="C372">
-        <v>174456.31</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>372</v>
       </c>
       <c r="B373">
         <v>177568.83</v>
       </c>
-      <c r="C373">
-        <v>177568.83</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>373</v>
       </c>
       <c r="B374">
         <v>179244.9</v>
       </c>
-      <c r="C374">
-        <v>179244.9</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>374</v>
       </c>
       <c r="B375">
         <v>196072.3</v>
       </c>
-      <c r="C375">
-        <v>196072.3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>375</v>
       </c>
       <c r="B376">
         <v>191361.76</v>
       </c>
-      <c r="C376">
-        <v>191361.76</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>376</v>
       </c>
       <c r="B377">
         <v>189467.01</v>
       </c>
-      <c r="C377">
-        <v>189467.01</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>377</v>
       </c>
       <c r="B378">
         <v>193049.69</v>
       </c>
-      <c r="C378">
-        <v>193049.69</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>378</v>
       </c>
       <c r="B379">
         <v>199230.17</v>
       </c>
-      <c r="C379">
-        <v>199230.17</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>379</v>
       </c>
       <c r="B380">
         <v>193722.05</v>
       </c>
-      <c r="C380">
-        <v>193722.05</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>380</v>
       </c>
       <c r="B381">
         <v>187407.74</v>
       </c>
-      <c r="C381">
-        <v>187407.74</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>381</v>
       </c>
       <c r="B382">
         <v>190980.73</v>
       </c>
-      <c r="C382">
-        <v>190980.73</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>382</v>
       </c>
       <c r="B383">
         <v>188059.12</v>
       </c>
-      <c r="C383">
-        <v>188059.12</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>383</v>
       </c>
       <c r="B384">
         <v>192973.02</v>
       </c>
-      <c r="C384">
-        <v>192973.02</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>384</v>
       </c>
       <c r="B385">
         <v>206352.18</v>
       </c>
-      <c r="C385">
-        <v>206352.18</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>385</v>
       </c>
       <c r="B386">
         <v>195616.81</v>
       </c>
-      <c r="C386">
-        <v>195616.81</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>386</v>
       </c>
       <c r="B387">
         <v>188923.22</v>
       </c>
-      <c r="C387">
-        <v>188923.22</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>387</v>
       </c>
       <c r="B388">
         <v>178345.54</v>
       </c>
-      <c r="C388">
-        <v>178345.54</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>388</v>
       </c>
       <c r="B389">
         <v>180128.26</v>
       </c>
-      <c r="C389">
-        <v>180128.26</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>389</v>
       </c>
       <c r="B390">
         <v>184014.27</v>
       </c>
-      <c r="C390">
-        <v>184014.27</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>390</v>
       </c>
       <c r="B391">
         <v>186977.9</v>
       </c>
-      <c r="C391">
-        <v>186977.9</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>391</v>
       </c>
       <c r="B392">
         <v>196452.71</v>
       </c>
-      <c r="C392">
-        <v>196452.71</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>392</v>
       </c>
       <c r="B393">
         <v>195807.22</v>
       </c>
-      <c r="C393">
-        <v>195807.22</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>393</v>
       </c>
       <c r="B394">
         <v>186151.56</v>
       </c>
-      <c r="C394">
-        <v>186151.56</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>394</v>
       </c>
       <c r="B395">
         <v>182046.95</v>
       </c>
-      <c r="C395">
-        <v>182046.95</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>395</v>
       </c>
       <c r="B396">
         <v>185268.35</v>
       </c>
-      <c r="C396">
-        <v>185268.35</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>396</v>
       </c>
       <c r="B397">
         <v>185834.08</v>
       </c>
-      <c r="C397">
-        <v>185834.08</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>397</v>
       </c>
       <c r="B398">
         <v>196018.91</v>
       </c>
-      <c r="C398">
-        <v>196018.91</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>398</v>
       </c>
       <c r="B399">
         <v>193349.74</v>
       </c>
-      <c r="C399">
-        <v>193349.74</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>399</v>
       </c>
       <c r="B400">
         <v>180046.88</v>
       </c>
-      <c r="C400">
-        <v>180046.88</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>400</v>
       </c>
       <c r="B401">
         <v>164053.32</v>
       </c>
-      <c r="C401">
-        <v>164053.32</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>401</v>
       </c>
       <c r="B402">
         <v>167808.65</v>
       </c>
-      <c r="C402">
-        <v>167808.65</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>402</v>
       </c>
       <c r="B403">
         <v>174458.42</v>
       </c>
-      <c r="C403">
-        <v>174458.42</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>403</v>
       </c>
       <c r="B404">
         <v>177826.91</v>
       </c>
-      <c r="C404">
-        <v>177826.91</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>404</v>
       </c>
       <c r="B405">
         <v>182571.04</v>
       </c>
-      <c r="C405">
-        <v>182571.04</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>405</v>
       </c>
       <c r="B406">
         <v>210153.16</v>
       </c>
-      <c r="C406">
-        <v>210153.16</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>406</v>
       </c>
       <c r="B407">
         <v>213408.09</v>
       </c>
-      <c r="C407">
-        <v>213408.09</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>407</v>
       </c>
       <c r="B408">
         <v>202894.92</v>
       </c>
-      <c r="C408">
-        <v>202894.92</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>408</v>
       </c>
       <c r="B409">
         <v>198611.65</v>
       </c>
-      <c r="C409">
-        <v>198611.65</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>409</v>
       </c>
       <c r="B410">
         <v>193430.03</v>
       </c>
-      <c r="C410">
-        <v>193430.03</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>410</v>
       </c>
       <c r="B411">
         <v>203361.14</v>
       </c>
-      <c r="C411">
-        <v>203361.14</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>411</v>
       </c>
       <c r="B412">
         <v>200631.06</v>
       </c>
-      <c r="C412">
-        <v>200631.06</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>412</v>
       </c>
       <c r="B413">
         <v>212520.3</v>
       </c>
-      <c r="C413">
-        <v>212520.3</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>413</v>
       </c>
       <c r="B414">
         <v>216361.79</v>
       </c>
-      <c r="C414">
-        <v>216361.79</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>414</v>
       </c>
       <c r="B415">
         <v>209265.84</v>
       </c>
-      <c r="C415">
-        <v>209265.84</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>415</v>
       </c>
       <c r="B416">
         <v>206058.16</v>
       </c>
-      <c r="C416">
-        <v>206058.16</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>416</v>
       </c>
       <c r="B417">
         <v>203983.89</v>
       </c>
-      <c r="C417">
-        <v>203983.89</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>417</v>
       </c>
       <c r="B418">
         <v>206869.62</v>
       </c>
-      <c r="C418">
-        <v>206869.62</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>418</v>
       </c>
       <c r="B419">
         <v>204964.32</v>
       </c>
-      <c r="C419">
-        <v>204964.32</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>419</v>
       </c>
       <c r="B420">
         <v>204792.18</v>
       </c>
-      <c r="C420">
-        <v>204792.18</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>420</v>
       </c>
       <c r="B421">
         <v>204116.79</v>
       </c>
-      <c r="C421">
-        <v>204116.79</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>421</v>
       </c>
       <c r="B422">
         <v>203154.3</v>
       </c>
-      <c r="C422">
-        <v>203154.3</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>422</v>
       </c>
       <c r="B423">
         <v>193809.25</v>
       </c>
-      <c r="C423">
-        <v>193809.25</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>423</v>
       </c>
       <c r="B424">
         <v>196094.46</v>
       </c>
-      <c r="C424">
-        <v>196094.46</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>424</v>
       </c>
       <c r="B425">
         <v>200900.63</v>
       </c>
-      <c r="C425">
-        <v>200900.63</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>425</v>
       </c>
       <c r="B426">
         <v>201824.27</v>
       </c>
-      <c r="C426">
-        <v>201824.27</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>426</v>
       </c>
       <c r="B427">
         <v>209002.21</v>
       </c>
-      <c r="C427">
-        <v>209002.21</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>427</v>
       </c>
       <c r="B428">
         <v>219360.58</v>
       </c>
-      <c r="C428">
-        <v>219360.58</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>428</v>
       </c>
       <c r="B429">
         <v>201881.36</v>
       </c>
-      <c r="C429">
-        <v>201881.36</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>429</v>
       </c>
       <c r="B430">
         <v>198093.02</v>
       </c>
-      <c r="C430">
-        <v>198093.02</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>430</v>
       </c>
       <c r="B431">
         <v>192603.96</v>
       </c>
-      <c r="C431">
-        <v>192603.96</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>431</v>
       </c>
       <c r="B432">
         <v>185003.89</v>
       </c>
-      <c r="C432">
-        <v>185003.89</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>432</v>
       </c>
       <c r="B433">
         <v>186529.66</v>
       </c>
-      <c r="C433">
-        <v>186529.66</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>433</v>
       </c>
       <c r="B434">
         <v>198682.9</v>
       </c>
-      <c r="C434">
-        <v>198682.9</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>434</v>
       </c>
       <c r="B435">
         <v>209234.08</v>
       </c>
-      <c r="C435">
-        <v>209234.08</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>435</v>
       </c>
       <c r="B436">
         <v>231047.84</v>
       </c>
-      <c r="C436">
-        <v>231047.84</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>436</v>
       </c>
       <c r="B437">
         <v>219707.25</v>
       </c>
-      <c r="C437">
-        <v>219707.25</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>437</v>
       </c>
       <c r="B438">
         <v>216470.93</v>
       </c>
-      <c r="C438">
-        <v>216470.93</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>438</v>
       </c>
       <c r="B439">
         <v>225307.5</v>
       </c>
-      <c r="C439">
-        <v>225307.5</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>439</v>
       </c>
       <c r="B440">
         <v>230508.68</v>
       </c>
-      <c r="C440">
-        <v>230508.68</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>440</v>
       </c>
       <c r="B441">
         <v>233729.62</v>
       </c>
-      <c r="C441">
-        <v>233729.62</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>441</v>
       </c>
       <c r="B442">
         <v>240013.94</v>
       </c>
-      <c r="C442">
-        <v>240013.94</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>442</v>
       </c>
       <c r="B443">
         <v>227681.35</v>
       </c>
-      <c r="C443">
-        <v>227681.35</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>443</v>
       </c>
       <c r="B444">
         <v>222824.21</v>
       </c>
-      <c r="C444">
-        <v>222824.21</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>444</v>
       </c>
       <c r="B445">
         <v>221347.39</v>
       </c>
-      <c r="C445">
-        <v>221347.39</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>445</v>
       </c>
       <c r="B446">
         <v>221671.2</v>
       </c>
-      <c r="C446">
-        <v>221671.2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>446</v>
       </c>
       <c r="B447">
         <v>242286.14</v>
       </c>
-      <c r="C447">
-        <v>242286.14</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>447</v>
       </c>
       <c r="B448">
         <v>225245.22</v>
       </c>
-      <c r="C448">
-        <v>225245.22</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>448</v>
       </c>
       <c r="B449">
         <v>217375.26</v>
       </c>
-      <c r="C449">
-        <v>217375.26</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>449</v>
       </c>
       <c r="B450">
         <v>212856.12</v>
       </c>
-      <c r="C450">
-        <v>212856.12</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>450</v>
       </c>
       <c r="B451">
         <v>205367.73</v>
       </c>
-      <c r="C451">
-        <v>205367.73</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>451</v>
       </c>
       <c r="B452">
         <v>199806.43</v>
       </c>
-      <c r="C452">
-        <v>199806.43</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>452</v>
       </c>
       <c r="B453">
         <v>202023.17</v>
       </c>
-      <c r="C453">
-        <v>202023.17</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>453</v>
       </c>
       <c r="B454">
         <v>198891.05</v>
       </c>
-      <c r="C454">
-        <v>198891.05</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>454</v>
       </c>
       <c r="B455">
         <v>203033.58</v>
       </c>
-      <c r="C455">
-        <v>203033.58</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>455</v>
       </c>
       <c r="B456">
         <v>194105.78</v>
       </c>
-      <c r="C456">
-        <v>194105.78</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>456</v>
       </c>
       <c r="B457">
         <v>184427.62</v>
       </c>
-      <c r="C457">
-        <v>184427.62</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>457</v>
       </c>
       <c r="B458">
         <v>186441.76</v>
       </c>
-      <c r="C458">
-        <v>186441.76</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>458</v>
       </c>
       <c r="B459">
         <v>198877.98</v>
       </c>
-      <c r="C459">
-        <v>198877.98</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>459</v>
       </c>
       <c r="B460">
         <v>194682.38</v>
       </c>
-      <c r="C460">
-        <v>194682.38</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>460</v>
       </c>
       <c r="B461">
         <v>199955.92</v>
       </c>
-      <c r="C461">
-        <v>199955.92</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>461</v>
       </c>
       <c r="B462">
         <v>228374.94</v>
       </c>
-      <c r="C462">
-        <v>228374.94</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>462</v>
       </c>
       <c r="B463">
         <v>243332.43</v>
       </c>
-      <c r="C463">
-        <v>243332.43</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>463</v>
       </c>
       <c r="B464">
         <v>232020.48000000001</v>
       </c>
-      <c r="C464">
-        <v>232020.48000000001</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>464</v>
       </c>
       <c r="B465">
         <v>231339.3</v>
       </c>
-      <c r="C465">
-        <v>231339.3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>465</v>
       </c>
       <c r="B466">
         <v>238585.63</v>
       </c>
-      <c r="C466">
-        <v>238585.63</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>466</v>
       </c>
       <c r="B467">
         <v>248850.36</v>
       </c>
-      <c r="C467">
-        <v>248850.36</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>467</v>
       </c>
       <c r="B468">
         <v>245211.55</v>
       </c>
-      <c r="C468">
-        <v>245211.55</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>468</v>
       </c>
       <c r="B469">
         <v>241814.47</v>
       </c>
-      <c r="C469">
-        <v>241814.47</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>469</v>
       </c>
       <c r="B470">
         <v>243238.57</v>
       </c>
-      <c r="C470">
-        <v>243238.57</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>470</v>
       </c>
       <c r="B471">
         <v>229290.34</v>
       </c>
-      <c r="C471">
-        <v>229290.34</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>471</v>
       </c>
       <c r="B472">
         <v>227714.51</v>
       </c>
-      <c r="C472">
-        <v>227714.51</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>472</v>
       </c>
       <c r="B473">
         <v>233165.01</v>
       </c>
-      <c r="C473">
-        <v>233165.01</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>473</v>
       </c>
       <c r="B474">
         <v>233916.76</v>
       </c>
-      <c r="C474">
-        <v>233916.76</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>474</v>
       </c>
       <c r="B475">
         <v>228883.28</v>
       </c>
-      <c r="C475">
-        <v>228883.28</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>475</v>
       </c>
       <c r="B476">
         <v>227863.44</v>
       </c>
-      <c r="C476">
-        <v>227863.44</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>476</v>
       </c>
       <c r="B477">
         <v>234359.86</v>
       </c>
-      <c r="C477">
-        <v>234359.86</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>477</v>
       </c>
       <c r="B478">
         <v>212787.14</v>
       </c>
-      <c r="C478">
-        <v>212787.14</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>478</v>
       </c>
       <c r="B479">
         <v>209809.53</v>
       </c>
-      <c r="C479">
-        <v>209809.53</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>479</v>
       </c>
       <c r="B480">
         <v>227505</v>
       </c>
-      <c r="C480">
-        <v>227505</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>480</v>
       </c>
       <c r="B481">
         <v>226350.1</v>
       </c>
-      <c r="C481">
-        <v>226350.1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>481</v>
       </c>
       <c r="B482">
         <v>224362.99</v>
       </c>
-      <c r="C482">
-        <v>224362.99</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>482</v>
       </c>
       <c r="B483">
         <v>228885.72</v>
       </c>
-      <c r="C483">
-        <v>228885.72</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>483</v>
       </c>
       <c r="B484">
         <v>232453.82</v>
       </c>
-      <c r="C484">
-        <v>232453.82</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>484</v>
       </c>
       <c r="B485">
         <v>238628.35</v>
       </c>
-      <c r="C485">
-        <v>238628.35</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>485</v>
       </c>
       <c r="B486">
         <v>228906.59</v>
       </c>
-      <c r="C486">
-        <v>228906.59</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>486</v>
       </c>
       <c r="B487">
         <v>241708.46</v>
       </c>
-      <c r="C487">
-        <v>241708.46</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>487</v>
       </c>
       <c r="B488">
         <v>245426.99</v>
       </c>
-      <c r="C488">
-        <v>245426.99</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>488</v>
       </c>
       <c r="B489">
         <v>251653.9</v>
       </c>
-      <c r="C489">
-        <v>251653.9</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>489</v>
       </c>
       <c r="B490">
         <v>254588.55</v>
       </c>
-      <c r="C490">
-        <v>254588.55</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>490</v>
       </c>
       <c r="B491">
         <v>253960.91</v>
       </c>
-      <c r="C491">
-        <v>253960.91</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>491</v>
       </c>
       <c r="B492">
         <v>244509.92</v>
       </c>
-      <c r="C492">
-        <v>244509.92</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>492</v>
       </c>
       <c r="B493">
         <v>243050.52</v>
       </c>
-      <c r="C493">
-        <v>243050.52</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>493</v>
       </c>
       <c r="B494">
         <v>257142.23</v>
       </c>
-      <c r="C494">
-        <v>257142.23</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>494</v>
       </c>
       <c r="B495">
         <v>261495.45</v>
       </c>
-      <c r="C495">
-        <v>261495.45</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>495</v>
       </c>
       <c r="B496">
         <v>270400.53000000003</v>
       </c>
-      <c r="C496">
-        <v>270400.53000000003</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>496</v>
       </c>
       <c r="B497">
         <v>277628.74</v>
       </c>
-      <c r="C497">
-        <v>277628.74</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>497</v>
       </c>
       <c r="B498">
         <v>289280.95</v>
       </c>
-      <c r="C498">
-        <v>289280.95</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>498</v>
       </c>
       <c r="B499">
         <v>282162.75</v>
       </c>
-      <c r="C499">
-        <v>282162.75</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>499</v>
       </c>
       <c r="B500">
         <v>273055.87</v>
       </c>
-      <c r="C500">
-        <v>273055.87</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>500</v>
       </c>
       <c r="B501">
         <v>281726.59999999998</v>
       </c>
-      <c r="C501">
-        <v>281726.59999999998</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>501</v>
       </c>
       <c r="B502">
         <v>291078.7</v>
       </c>
-      <c r="C502">
-        <v>291078.7</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>502</v>
       </c>
       <c r="B503">
         <v>275042.33</v>
       </c>
-      <c r="C503">
-        <v>275042.33</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>503</v>
       </c>
       <c r="B504">
         <v>278284.03000000003</v>
       </c>
-      <c r="C504">
-        <v>278284.03000000003</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>504</v>
       </c>
       <c r="B505">
         <v>286463.59999999998</v>
       </c>
-      <c r="C505">
-        <v>286463.59999999998</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>505</v>
       </c>
       <c r="B506">
         <v>276223.57</v>
       </c>
-      <c r="C506">
-        <v>276223.57</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>506</v>
       </c>
       <c r="B507">
         <v>263526.05</v>
       </c>
-      <c r="C507">
-        <v>263526.05</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>507</v>
       </c>
       <c r="B508">
         <v>265321.67</v>
       </c>
-      <c r="C508">
-        <v>265321.67</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>508</v>
       </c>
       <c r="B509">
         <v>264917.83</v>
       </c>
-      <c r="C509">
-        <v>264917.83</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>509</v>
       </c>
       <c r="B510">
         <v>265220.78999999998</v>
       </c>
-      <c r="C510">
-        <v>265220.78999999998</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>510</v>
       </c>
       <c r="B511">
         <v>276521.96999999997</v>
       </c>
-      <c r="C511">
-        <v>276521.96999999997</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>511</v>
       </c>
       <c r="B512">
         <v>282387.53000000003</v>
       </c>
-      <c r="C512">
-        <v>282387.53000000003</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>512</v>
       </c>
       <c r="B513">
         <v>265300.63</v>
       </c>
-      <c r="C513">
-        <v>265300.63</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>513</v>
       </c>
       <c r="B514">
         <v>251434.2</v>
       </c>
-      <c r="C514">
-        <v>251434.2</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>514</v>
       </c>
       <c r="B515">
         <v>252546.49</v>
       </c>
-      <c r="C515">
-        <v>252546.49</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>515</v>
       </c>
       <c r="B516">
         <v>252318.96</v>
       </c>
-      <c r="C516">
-        <v>252318.96</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>516</v>
       </c>
       <c r="B517">
         <v>254158.83</v>
       </c>
-      <c r="C517">
-        <v>254158.83</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>517</v>
       </c>
       <c r="B518">
         <v>256779.4</v>
       </c>
-      <c r="C518">
-        <v>256779.4</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>518</v>
       </c>
       <c r="B519">
         <v>261234.53</v>
       </c>
-      <c r="C519">
-        <v>261234.53</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>519</v>
       </c>
       <c r="B520">
         <v>248971.19</v>
       </c>
-      <c r="C520">
-        <v>248971.19</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>520</v>
       </c>
       <c r="B521">
         <v>238373.62</v>
       </c>
-      <c r="C521">
-        <v>238373.62</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>521</v>
       </c>
       <c r="B522">
         <v>240421.13</v>
       </c>
-      <c r="C522">
-        <v>240421.13</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>522</v>
       </c>
       <c r="B523">
         <v>241383.3</v>
       </c>
-      <c r="C523">
-        <v>241383.3</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>523</v>
       </c>
       <c r="B524">
         <v>256268.4</v>
       </c>
-      <c r="C524">
-        <v>256268.4</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>524</v>
       </c>
       <c r="B525">
         <v>274465.42</v>
       </c>
-      <c r="C525">
-        <v>274465.42</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>525</v>
       </c>
       <c r="B526">
         <v>276420.24</v>
       </c>
-      <c r="C526">
-        <v>276420.24</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>526</v>
       </c>
       <c r="B527">
         <v>275955.78000000003</v>
       </c>
-      <c r="C527">
-        <v>275955.78000000003</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>527</v>
       </c>
       <c r="B528">
         <v>279024.98</v>
       </c>
-      <c r="C528">
-        <v>279024.98</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>528</v>
       </c>
       <c r="B529">
         <v>275511.67</v>
       </c>
-      <c r="C529">
-        <v>275511.67</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>529</v>
       </c>
       <c r="B530">
         <v>285658.21000000002</v>
       </c>
-      <c r="C530">
-        <v>285658.21000000002</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>530</v>
       </c>
       <c r="B531">
         <v>284619.59999999998</v>
       </c>
-      <c r="C531">
-        <v>284619.59999999998</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>531</v>
       </c>
       <c r="B532">
         <v>295120.34999999998</v>
       </c>
-      <c r="C532">
-        <v>295120.34999999998</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>532</v>
       </c>
       <c r="B533">
         <v>287263.40999999997</v>
       </c>
-      <c r="C533">
-        <v>287263.40999999997</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>533</v>
       </c>
       <c r="B534">
         <v>276871.57</v>
       </c>
-      <c r="C534">
-        <v>276871.57</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>534</v>
       </c>
       <c r="B535">
         <v>277291.11</v>
       </c>
-      <c r="C535">
-        <v>277291.11</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>535</v>
       </c>
       <c r="B536">
         <v>288539.98</v>
       </c>
-      <c r="C536">
-        <v>288539.98</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>536</v>
       </c>
       <c r="B537">
         <v>289229.95</v>
       </c>
-      <c r="C537">
-        <v>289229.95</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>537</v>
       </c>
       <c r="B538">
         <v>286864.40000000002</v>
       </c>
-      <c r="C538">
-        <v>286864.40000000002</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>538</v>
       </c>
       <c r="B539">
         <v>293457.18</v>
       </c>
-      <c r="C539">
-        <v>293457.18</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>539</v>
       </c>
       <c r="B540">
         <v>278696.90999999997</v>
       </c>
-      <c r="C540">
-        <v>278696.90999999997</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>540</v>
       </c>
       <c r="B541">
         <v>258931.91</v>
       </c>
-      <c r="C541">
-        <v>258931.91</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>541</v>
       </c>
       <c r="B542">
         <v>258521.17</v>
       </c>
-      <c r="C542">
-        <v>258521.17</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>542</v>
       </c>
       <c r="B543">
         <v>263879.01</v>
       </c>
-      <c r="C543">
-        <v>263879.01</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>543</v>
       </c>
       <c r="B544">
         <v>263123.90000000002</v>
       </c>
-      <c r="C544">
-        <v>263123.90000000002</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>544</v>
       </c>
       <c r="B545">
         <v>270386.17</v>
       </c>
-      <c r="C545">
-        <v>270386.17</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>545</v>
       </c>
       <c r="B546">
         <v>274912.19</v>
       </c>
-      <c r="C546">
-        <v>274912.19</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>546</v>
       </c>
       <c r="B547">
         <v>262481.25</v>
       </c>
-      <c r="C547">
-        <v>262481.25</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>547</v>
       </c>
       <c r="B548">
         <v>246621.55</v>
       </c>
-      <c r="C548">
-        <v>246621.55</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>548</v>
       </c>
       <c r="B549">
         <v>248331.12</v>
       </c>
-      <c r="C549">
-        <v>248331.12</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>549</v>
       </c>
       <c r="B550">
         <v>253298.09</v>
       </c>
-      <c r="C550">
-        <v>253298.09</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>550</v>
       </c>
       <c r="B551">
         <v>254067.53</v>
       </c>
-      <c r="C551">
-        <v>254067.53</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>551</v>
       </c>
       <c r="B552">
         <v>256163.24</v>
       </c>
-      <c r="C552">
-        <v>256163.24</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>552</v>
       </c>
       <c r="B553">
         <v>252708.79</v>
       </c>
-      <c r="C553">
-        <v>252708.79</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>553</v>
       </c>
       <c r="B554">
         <v>283547.21999999997</v>
       </c>
-      <c r="C554">
-        <v>283547.21999999997</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>554</v>
       </c>
       <c r="B555">
         <v>270547.28999999998</v>
       </c>
-      <c r="C555">
-        <v>270547.28999999998</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>555</v>
       </c>
       <c r="B556">
         <v>296895.52</v>
       </c>
-      <c r="C556">
-        <v>296895.52</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>556</v>
       </c>
       <c r="B557">
         <v>291660.03000000003</v>
       </c>
-      <c r="C557">
-        <v>291660.03000000003</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>557</v>
       </c>
       <c r="B558">
         <v>302365.96999999997</v>
       </c>
-      <c r="C558">
-        <v>302365.96999999997</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>558</v>
       </c>
       <c r="B559">
         <v>310552.83</v>
       </c>
-      <c r="C559">
-        <v>310552.83</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>559</v>
       </c>
       <c r="B560">
         <v>309254.23</v>
       </c>
-      <c r="C560">
-        <v>309254.23</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>560</v>
       </c>
       <c r="B561">
         <v>283189.74</v>
       </c>
-      <c r="C561">
-        <v>283189.74</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>561</v>
       </c>
       <c r="B562">
         <v>292212.11</v>
       </c>
-      <c r="C562">
-        <v>292212.11</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>562</v>
       </c>
       <c r="B563">
         <v>292416.37</v>
       </c>
-      <c r="C563">
-        <v>292416.37</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>563</v>
       </c>
       <c r="B564">
         <v>288708.64</v>
       </c>
-      <c r="C564">
-        <v>288708.64</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>564</v>
       </c>
       <c r="B565">
         <v>299545.21999999997</v>
       </c>
-      <c r="C565">
-        <v>299545.21999999997</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>565</v>
       </c>
       <c r="B566">
         <v>298185.42</v>
       </c>
-      <c r="C566">
-        <v>298185.42</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>566</v>
       </c>
       <c r="B567">
         <v>278318.31</v>
       </c>
-      <c r="C567">
-        <v>278318.31</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>567</v>
       </c>
       <c r="B568">
         <v>272860.24</v>
       </c>
-      <c r="C568">
-        <v>272860.24</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>568</v>
       </c>
       <c r="B569">
         <v>273415.90000000002</v>
       </c>
-      <c r="C569">
-        <v>273415.90000000002</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>569</v>
       </c>
       <c r="B570">
         <v>283935.23</v>
       </c>
-      <c r="C570">
-        <v>283935.23</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>570</v>
       </c>
       <c r="B571">
         <v>291325.07</v>
       </c>
-      <c r="C571">
-        <v>291325.07</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>571</v>
       </c>
       <c r="B572">
         <v>297656.55</v>
       </c>
-      <c r="C572">
-        <v>297656.55</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>572</v>
       </c>
       <c r="B573">
         <v>276442.15000000002</v>
       </c>
-      <c r="C573">
-        <v>276442.15000000002</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>573</v>
       </c>
       <c r="B574">
         <v>289354.95</v>
       </c>
-      <c r="C574">
-        <v>289354.95</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>574</v>
       </c>
       <c r="B575">
         <v>268625.88</v>
       </c>
-      <c r="C575">
-        <v>268625.88</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>575</v>
       </c>
       <c r="B576">
         <v>272340.08</v>
       </c>
-      <c r="C576">
-        <v>272340.08</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>576</v>
       </c>
       <c r="B577">
         <v>275110.75</v>
       </c>
-      <c r="C577">
-        <v>275110.75</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>577</v>
       </c>
       <c r="B578">
         <v>276840.46999999997</v>
       </c>
-      <c r="C578">
-        <v>276840.46999999997</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>578</v>
       </c>
       <c r="B579">
         <v>271127.15999999997</v>
       </c>
-      <c r="C579">
-        <v>271127.15999999997</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>579</v>
       </c>
       <c r="B580">
         <v>262238.81</v>
       </c>
-      <c r="C580">
-        <v>262238.81</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>580</v>
       </c>
       <c r="B581">
         <v>258245.79</v>
       </c>
-      <c r="C581">
-        <v>258245.79</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
         <v>581</v>
       </c>
       <c r="B582">
         <v>268681.05</v>
       </c>
-      <c r="C582">
-        <v>268681.05</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
         <v>582</v>
       </c>
       <c r="B583">
         <v>254047.5</v>
       </c>
-      <c r="C583">
-        <v>254047.5</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
         <v>583</v>
       </c>
       <c r="B584">
         <v>306687.59000000003</v>
       </c>
-      <c r="C584">
-        <v>306687.59000000003</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
         <v>584</v>
       </c>
       <c r="B585">
         <v>292878.82</v>
       </c>
-      <c r="C585">
-        <v>292878.82</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
         <v>585</v>
       </c>
       <c r="B586">
         <v>313512.59000000003</v>
       </c>
-      <c r="C586">
-        <v>313512.59000000003</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
         <v>586</v>
       </c>
       <c r="B587">
         <v>311954.46999999997</v>
       </c>
-      <c r="C587">
-        <v>311954.46999999997</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
         <v>587</v>
       </c>
       <c r="B588">
         <v>307265.82</v>
       </c>
-      <c r="C588">
-        <v>307265.82</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
         <v>588</v>
       </c>
       <c r="B589">
         <v>313121.87</v>
       </c>
-      <c r="C589">
-        <v>313121.87</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
         <v>589</v>
       </c>
       <c r="B590">
         <v>310617.55</v>
       </c>
-      <c r="C590">
-        <v>310617.55</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
         <v>590</v>
       </c>
       <c r="B591">
         <v>315838.96000000002</v>
       </c>
-      <c r="C591">
-        <v>315838.96000000002</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
         <v>591</v>
       </c>
       <c r="B592">
         <v>314057.14</v>
       </c>
-      <c r="C592">
-        <v>314057.14</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>592</v>
       </c>
       <c r="B593">
         <v>317662.39</v>
       </c>
-      <c r="C593">
-        <v>317662.39</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>593</v>
       </c>
       <c r="B594">
         <v>310384.36</v>
       </c>
-      <c r="C594">
-        <v>310384.36</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>594</v>
       </c>
       <c r="B595">
         <v>291891.19</v>
       </c>
-      <c r="C595">
-        <v>291891.19</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>595</v>
       </c>
       <c r="B596">
         <v>301848.53000000003</v>
       </c>
-      <c r="C596">
-        <v>301848.53000000003</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>596</v>
       </c>
       <c r="B597">
         <v>298609.17</v>
       </c>
-      <c r="C597">
-        <v>298609.17</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>597</v>
       </c>
       <c r="B598">
         <v>299448.75</v>
       </c>
-      <c r="C598">
-        <v>299448.75</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>598</v>
       </c>
       <c r="B599">
         <v>298535.84000000003</v>
       </c>
-      <c r="C599">
-        <v>298535.84000000003</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>599</v>
       </c>
       <c r="B600">
         <v>306185.26</v>
       </c>
-      <c r="C600">
-        <v>306185.26</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>600</v>
       </c>
       <c r="B601">
         <v>305517.58</v>
       </c>
-      <c r="C601">
-        <v>305517.58</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>601</v>
       </c>
       <c r="B602">
         <v>278772.33</v>
       </c>
-      <c r="C602">
-        <v>278772.33</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>602</v>
       </c>
       <c r="B603">
         <v>287473.89</v>
       </c>
-      <c r="C603">
-        <v>287473.89</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>603</v>
       </c>
       <c r="B604">
         <v>281143.23</v>
       </c>
-      <c r="C604">
-        <v>281143.23</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>604</v>
       </c>
       <c r="B605">
         <v>280173.59000000003</v>
       </c>
-      <c r="C605">
-        <v>280173.59000000003</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>605</v>
       </c>
       <c r="B606">
         <v>287187.25</v>
       </c>
-      <c r="C606">
-        <v>287187.25</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>606</v>
       </c>
       <c r="B607">
         <v>284644.53000000003</v>
       </c>
-      <c r="C607">
-        <v>284644.53000000003</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
         <v>607</v>
       </c>
       <c r="B608">
         <v>270733.43</v>
       </c>
-      <c r="C608">
-        <v>270733.43</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>608</v>
       </c>
       <c r="B609">
         <v>261215.67</v>
       </c>
-      <c r="C609">
-        <v>261215.67</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>609</v>
       </c>
       <c r="B610">
         <v>265756</v>
       </c>
-      <c r="C610">
-        <v>265756</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>610</v>
       </c>
       <c r="B611">
         <v>269955.19</v>
       </c>
-      <c r="C611">
-        <v>269955.19</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>611</v>
       </c>
       <c r="B612">
         <v>301381.21000000002</v>
       </c>
-      <c r="C612">
-        <v>301381.21000000002</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>612</v>
       </c>
       <c r="B613">
         <v>283701.23</v>
       </c>
-      <c r="C613">
-        <v>283701.23</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>613</v>
       </c>
       <c r="B614">
         <v>311516.92</v>
       </c>
-      <c r="C614">
-        <v>311516.92</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>614</v>
       </c>
       <c r="B615">
         <v>295503.65000000002</v>
       </c>
-      <c r="C615">
-        <v>295503.65000000002</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>615</v>
       </c>
       <c r="B616">
         <v>302683.90000000002</v>
       </c>
-      <c r="C616">
-        <v>302683.90000000002</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>616</v>
       </c>
       <c r="B617">
         <v>313789.23</v>
       </c>
-      <c r="C617">
-        <v>313789.23</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>617</v>
       </c>
       <c r="B618">
         <v>319610.39</v>
       </c>
-      <c r="C618">
-        <v>319610.39</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>618</v>
       </c>
       <c r="B619">
         <v>316311.13</v>
       </c>
-      <c r="C619">
-        <v>316311.13</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>619</v>
       </c>
       <c r="B620">
         <v>310945.3</v>
       </c>
-      <c r="C620">
-        <v>310945.3</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>620</v>
       </c>
       <c r="B621">
         <v>309804.43</v>
       </c>
-      <c r="C621">
-        <v>309804.43</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>621</v>
       </c>
       <c r="B622">
         <v>299769.83</v>
       </c>
-      <c r="C622">
-        <v>299769.83</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>622</v>
       </c>
       <c r="B623">
         <v>295623.09000000003</v>
       </c>
-      <c r="C623">
-        <v>295623.09000000003</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>623</v>
       </c>
       <c r="B624">
         <v>305667.86</v>
       </c>
-      <c r="C624">
-        <v>305667.86</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>624</v>
       </c>
       <c r="B625">
         <v>305366.98</v>
       </c>
-      <c r="C625">
-        <v>305366.98</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>625</v>
       </c>
       <c r="B626">
         <v>305854.90999999997</v>
       </c>
-      <c r="C626">
-        <v>305854.90999999997</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>626</v>
       </c>
       <c r="B627">
         <v>309556.92</v>
       </c>
-      <c r="C627">
-        <v>309556.92</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>627</v>
       </c>
       <c r="B628">
         <v>314414.95</v>
       </c>
-      <c r="C628">
-        <v>314414.95</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>628</v>
       </c>
       <c r="B629">
         <v>286897.55</v>
       </c>
-      <c r="C629">
-        <v>286897.55</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>629</v>
       </c>
       <c r="B630">
         <v>304419.87</v>
       </c>
-      <c r="C630">
-        <v>304419.87</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>630</v>
       </c>
       <c r="B631">
         <v>293642.3</v>
       </c>
-      <c r="C631">
-        <v>293642.3</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>631</v>
       </c>
       <c r="B632">
         <v>288996.42</v>
       </c>
-      <c r="C632">
-        <v>288996.42</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>632</v>
       </c>
       <c r="B633">
         <v>289036.56</v>
       </c>
-      <c r="C633">
-        <v>289036.56</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>633</v>
       </c>
       <c r="B634">
         <v>295171.13</v>
       </c>
-      <c r="C634">
-        <v>295171.13</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>634</v>
       </c>
       <c r="B635">
         <v>279735.59999999998</v>
       </c>
-      <c r="C635">
-        <v>279735.59999999998</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>635</v>
       </c>
       <c r="B636">
         <v>284639.64</v>
       </c>
-      <c r="C636">
-        <v>284639.64</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>636</v>
       </c>
       <c r="B637">
         <v>286329.45</v>
       </c>
-      <c r="C637">
-        <v>286329.45</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>637</v>
       </c>
       <c r="B638">
         <v>277789.67</v>
       </c>
-      <c r="C638">
-        <v>277789.67</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>638</v>
       </c>
       <c r="B639">
         <v>249592.88</v>
       </c>
-      <c r="C639">
-        <v>249592.88</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>639</v>
       </c>
       <c r="B640">
         <v>281722.45</v>
       </c>
-      <c r="C640">
-        <v>281722.45</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>640</v>
       </c>
       <c r="B641">
         <v>268324.52</v>
       </c>
-      <c r="C641">
-        <v>268324.52</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>641</v>
       </c>
       <c r="B642">
         <v>268581.67</v>
       </c>
-      <c r="C642">
-        <v>268581.67</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>642</v>
       </c>
       <c r="B643">
         <v>266947.77</v>
       </c>
-      <c r="C643">
-        <v>266947.77</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>643</v>
       </c>
       <c r="B644">
         <v>305180.15000000002</v>
       </c>
-      <c r="C644">
-        <v>305180.15000000002</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>644</v>
       </c>
       <c r="B645">
         <v>311900.55</v>
       </c>
-      <c r="C645">
-        <v>311900.55</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>645</v>
       </c>
       <c r="B646">
         <v>324416.62</v>
       </c>
-      <c r="C646">
-        <v>324416.62</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>646</v>
       </c>
       <c r="B647">
         <v>327153.09000000003</v>
       </c>
-      <c r="C647">
-        <v>327153.09000000003</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>647</v>
       </c>
       <c r="B648">
         <v>329179.27</v>
       </c>
-      <c r="C648">
-        <v>329179.27</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>648</v>
       </c>
       <c r="B649">
         <v>323695.8</v>
       </c>
-      <c r="C649">
-        <v>323695.8</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>649</v>
       </c>
       <c r="B650">
         <v>317652.18</v>
       </c>
-      <c r="C650">
-        <v>317652.18</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>650</v>
       </c>
       <c r="B651">
         <v>324774.18</v>
       </c>
-      <c r="C651">
-        <v>324774.18</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>651</v>
       </c>
       <c r="B652">
         <v>318123.75</v>
       </c>
-      <c r="C652">
-        <v>318123.75</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>652</v>
       </c>
       <c r="B653">
         <v>320203.84999999998</v>
       </c>
-      <c r="C653">
-        <v>320203.84999999998</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>653</v>
       </c>
       <c r="B654">
         <v>317469.92</v>
       </c>
-      <c r="C654">
-        <v>317469.92</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>654</v>
       </c>
       <c r="B655">
         <v>318213.53999999998</v>
       </c>
-      <c r="C655">
-        <v>318213.53999999998</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>655</v>
       </c>
       <c r="B656">
         <v>312346.26</v>
       </c>
-      <c r="C656">
-        <v>312346.26</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>656</v>
       </c>
       <c r="B657">
         <v>309059.78999999998</v>
       </c>
-      <c r="C657">
-        <v>309059.78999999998</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>657</v>
       </c>
       <c r="B658">
         <v>309924.59999999998</v>
       </c>
-      <c r="C658">
-        <v>309924.59999999998</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>658</v>
       </c>
       <c r="B659">
         <v>310935.69</v>
       </c>
-      <c r="C659">
-        <v>310935.69</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>659</v>
       </c>
       <c r="B660">
         <v>311359.11</v>
       </c>
-      <c r="C660">
-        <v>311359.11</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>660</v>
       </c>
       <c r="B661">
         <v>316184.76</v>
       </c>
-      <c r="C661">
-        <v>316184.76</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>661</v>
       </c>
       <c r="B662">
         <v>314615.44</v>
       </c>
-      <c r="C662">
-        <v>314615.44</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>662</v>
       </c>
       <c r="B663">
         <v>304019.03999999998</v>
       </c>
-      <c r="C663">
-        <v>304019.03999999998</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>663</v>
       </c>
       <c r="B664">
         <v>297045.53999999998</v>
       </c>
-      <c r="C664">
-        <v>297045.53999999998</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>664</v>
       </c>
       <c r="B665">
         <v>296288.21000000002</v>
       </c>
-      <c r="C665">
-        <v>296288.21000000002</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>665</v>
       </c>
       <c r="B666">
         <v>318730.09999999998</v>
       </c>
-      <c r="C666">
-        <v>318730.09999999998</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>666</v>
       </c>
       <c r="B667">
         <v>339460.71</v>
       </c>
-      <c r="C667">
-        <v>339460.71</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>667</v>
       </c>
       <c r="B668">
         <v>310734.2</v>
       </c>
-      <c r="C668">
-        <v>310734.2</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>668</v>
       </c>
       <c r="B669">
         <v>318120.21999999997</v>
       </c>
-      <c r="C669">
-        <v>318120.21999999997</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>669</v>
       </c>
       <c r="B670">
         <v>311586.92</v>
       </c>
-      <c r="C670">
-        <v>311586.92</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>670</v>
       </c>
       <c r="B671">
         <v>326960.59000000003</v>
       </c>
-      <c r="C671">
-        <v>326960.59000000003</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>671</v>
       </c>
       <c r="B672">
         <v>309300.95</v>
       </c>
-      <c r="C672">
-        <v>309300.95</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>672</v>
       </c>
       <c r="B673">
         <v>304199.92</v>
       </c>
-      <c r="C673">
-        <v>304199.92</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>673</v>
       </c>
       <c r="B674">
         <v>308930.84999999998</v>
       </c>
-      <c r="C674">
-        <v>308930.84999999998</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>674</v>
       </c>
       <c r="B675">
         <v>345213.31</v>
       </c>
-      <c r="C675">
-        <v>345213.31</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>675</v>
       </c>
       <c r="B676">
         <v>347694.21</v>
       </c>
-      <c r="C676">
-        <v>347694.21</v>
-      </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>676</v>
       </c>
       <c r="B677">
         <v>366845.79</v>
       </c>
-      <c r="C677">
-        <v>366845.79</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>677</v>
       </c>
       <c r="B678">
         <v>363075.47</v>
       </c>
-      <c r="C678">
-        <v>363075.47</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>678</v>
       </c>
       <c r="B679">
         <v>377305.57</v>
       </c>
-      <c r="C679">
-        <v>377305.57</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>679</v>
       </c>
       <c r="B680">
         <v>380676.89</v>
       </c>
-      <c r="C680">
-        <v>380676.89</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>680</v>
       </c>
       <c r="B681">
         <v>386753.83</v>
       </c>
-      <c r="C681">
-        <v>386753.83</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>681</v>
       </c>
       <c r="B682">
         <v>387193.82</v>
       </c>
-      <c r="C682">
-        <v>387193.82</v>
-      </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>682</v>
       </c>
       <c r="B683">
         <v>395152.83</v>
       </c>
-      <c r="C683">
-        <v>395152.83</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>683</v>
       </c>
       <c r="B684">
         <v>388314.92</v>
       </c>
-      <c r="C684">
-        <v>388314.92</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>684</v>
       </c>
       <c r="B685">
         <v>373531.52</v>
       </c>
-      <c r="C685">
-        <v>373531.52</v>
-      </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>685</v>
       </c>
       <c r="B686">
         <v>371978.82</v>
       </c>
-      <c r="C686">
-        <v>371978.82</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>686</v>
       </c>
       <c r="B687">
         <v>379285.74</v>
       </c>
-      <c r="C687">
-        <v>379285.74</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>687</v>
       </c>
       <c r="B688">
         <v>413444.26</v>
       </c>
-      <c r="C688">
-        <v>413444.26</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>688</v>
       </c>
       <c r="B689">
         <v>410707.84</v>
       </c>
-      <c r="C689">
-        <v>410707.84</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>689</v>
       </c>
       <c r="B690">
         <v>410165.13</v>
       </c>
-      <c r="C690">
-        <v>410165.13</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>690</v>
       </c>
       <c r="B691">
         <v>401870.88</v>
       </c>
-      <c r="C691">
-        <v>401870.88</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>691</v>
       </c>
       <c r="B692">
         <v>385703.21</v>
       </c>
-      <c r="C692">
-        <v>385703.21</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>692</v>
       </c>
       <c r="B693">
         <v>393858.24</v>
       </c>
-      <c r="C693">
-        <v>393858.24</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>693</v>
       </c>
       <c r="B694">
         <v>400698.73</v>
       </c>
-      <c r="C694">
-        <v>400698.73</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>694</v>
       </c>
       <c r="B695">
         <v>406693.15</v>
       </c>
-      <c r="C695">
-        <v>406693.15</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>695</v>
       </c>
       <c r="B696">
         <v>413452.07</v>
       </c>
-      <c r="C696">
-        <v>413452.07</v>
-      </c>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>696</v>
       </c>
       <c r="B697">
         <v>424224.51</v>
       </c>
-      <c r="C697">
-        <v>424224.51</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>697</v>
       </c>
       <c r="B698">
         <v>433215.73</v>
       </c>
-      <c r="C698">
-        <v>433215.73</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>698</v>
       </c>
       <c r="B699">
         <v>393092.88</v>
       </c>
-      <c r="C699">
-        <v>393092.88</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>699</v>
       </c>
       <c r="B700">
         <v>404414.51</v>
       </c>
-      <c r="C700">
-        <v>404414.51</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>700</v>
       </c>
       <c r="B701">
         <v>390629.86</v>
       </c>
-      <c r="C701">
-        <v>390629.86</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>701</v>
       </c>
       <c r="B702">
         <v>413207.19</v>
       </c>
-      <c r="C702">
-        <v>413207.19</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>702</v>
       </c>
       <c r="B703">
         <v>420076.48</v>
       </c>
-      <c r="C703">
-        <v>420076.48</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>703</v>
       </c>
       <c r="B704">
         <v>432450.73</v>
       </c>
-      <c r="C704">
-        <v>432450.73</v>
-      </c>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>704</v>
       </c>
       <c r="B705">
         <v>479660.17</v>
       </c>
-      <c r="C705">
-        <v>479660.17</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>705</v>
       </c>
       <c r="B706">
         <v>475042.89</v>
       </c>
-      <c r="C706">
-        <v>475042.89</v>
-      </c>
-    </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>706</v>
       </c>
       <c r="B707">
         <v>483333.59</v>
       </c>
-      <c r="C707">
-        <v>483333.59</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>707</v>
       </c>
       <c r="B708">
         <v>504678.68</v>
       </c>
-      <c r="C708">
-        <v>504678.68</v>
-      </c>
-    </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>708</v>
       </c>
       <c r="B709">
         <v>498106.57</v>
       </c>
-      <c r="C709">
-        <v>498106.57</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>709</v>
       </c>
       <c r="B710">
         <v>508097.78</v>
       </c>
-      <c r="C710">
-        <v>508097.78</v>
-      </c>
-    </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>710</v>
       </c>
       <c r="B711">
         <v>504480.44</v>
       </c>
-      <c r="C711">
-        <v>504480.44</v>
-      </c>
-    </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>711</v>
       </c>
       <c r="B712">
         <v>493082.2</v>
       </c>
-      <c r="C712">
-        <v>493082.2</v>
-      </c>
-    </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>712</v>
       </c>
       <c r="B713">
         <v>515746.11</v>
       </c>
-      <c r="C713">
-        <v>515746.11</v>
-      </c>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>713</v>
       </c>
       <c r="B714">
         <v>482300.89</v>
       </c>
-      <c r="C714">
-        <v>482300.89</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>714</v>
       </c>
       <c r="B715">
         <v>475499.42</v>
       </c>
-      <c r="C715">
-        <v>475499.42</v>
-      </c>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>715</v>
       </c>
       <c r="B716">
         <v>483714.77</v>
       </c>
-      <c r="C716">
-        <v>483714.77</v>
-      </c>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
         <v>716</v>
       </c>
       <c r="B717">
         <v>493401.9</v>
       </c>
-      <c r="C717">
-        <v>493401.9</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
         <v>717</v>
       </c>
       <c r="B718">
         <v>507646.06</v>
       </c>
-      <c r="C718">
-        <v>507646.06</v>
-      </c>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
         <v>718</v>
       </c>
       <c r="B719">
         <v>553977.81999999995</v>
       </c>
-      <c r="C719">
-        <v>553977.81999999995</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
         <v>719</v>
       </c>
       <c r="B720">
         <v>491783.67999999999</v>
       </c>
-      <c r="C720">
-        <v>491783.67999999999</v>
-      </c>
-    </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
         <v>720</v>
       </c>
       <c r="B721">
         <v>476965.84</v>
       </c>
-      <c r="C721">
-        <v>476965.84</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
         <v>721</v>
       </c>
       <c r="B722">
         <v>491814.97</v>
       </c>
-      <c r="C722">
-        <v>491814.97</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
         <v>722</v>
       </c>
       <c r="B723">
         <v>479957.62</v>
       </c>
-      <c r="C723">
-        <v>479957.62</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
         <v>723</v>
       </c>
       <c r="B724">
         <v>489933.09</v>
       </c>
-      <c r="C724">
-        <v>489933.09</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
         <v>724</v>
       </c>
       <c r="B725">
         <v>505543.04</v>
       </c>
-      <c r="C725">
-        <v>505543.04</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
         <v>725</v>
       </c>
       <c r="B726">
         <v>494973.21</v>
       </c>
-      <c r="C726">
-        <v>494973.21</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
         <v>726</v>
       </c>
       <c r="B727">
         <v>516676.13</v>
       </c>
-      <c r="C727">
-        <v>516676.13</v>
-      </c>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
         <v>727</v>
       </c>
       <c r="B728">
         <v>469586.77</v>
       </c>
-      <c r="C728">
-        <v>469586.77</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
         <v>728</v>
       </c>
       <c r="B729">
         <v>465191.07</v>
       </c>
-      <c r="C729">
-        <v>465191.07</v>
-      </c>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
         <v>729</v>
       </c>
       <c r="B730">
         <v>464309.19</v>
       </c>
-      <c r="C730">
-        <v>464309.19</v>
-      </c>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
         <v>730</v>
       </c>
       <c r="B731">
         <v>475883.17</v>
       </c>
-      <c r="C731">
-        <v>475883.17</v>
-      </c>
-    </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
         <v>731</v>
       </c>
       <c r="B732">
         <v>503344.56</v>
       </c>
-      <c r="C732">
-        <v>503344.56</v>
-      </c>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
         <v>732</v>
       </c>
       <c r="B733">
         <v>482122.37</v>
       </c>
-      <c r="C733">
-        <v>482122.37</v>
-      </c>
-    </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
         <v>733</v>
       </c>
       <c r="B734">
         <v>453554.77</v>
       </c>
-      <c r="C734">
-        <v>453554.77</v>
-      </c>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
         <v>734</v>
       </c>
       <c r="B735">
         <v>437558.21</v>
       </c>
-      <c r="C735">
-        <v>437558.21</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
         <v>735</v>
       </c>
       <c r="B736">
         <v>423613.12</v>
       </c>
-      <c r="C736">
-        <v>423613.12</v>
-      </c>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
         <v>736</v>
       </c>
       <c r="B737">
         <v>538992.11</v>
       </c>
-      <c r="C737">
-        <v>538992.11</v>
-      </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
         <v>737</v>
       </c>
       <c r="B738">
         <v>575149.25</v>
       </c>
-      <c r="C738">
-        <v>575149.25</v>
-      </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
         <v>738</v>
       </c>
       <c r="B739">
         <v>615150.51</v>
       </c>
-      <c r="C739">
-        <v>615150.51</v>
-      </c>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
         <v>739</v>
       </c>
       <c r="B740">
         <v>586720.81000000006</v>
       </c>
-      <c r="C740">
-        <v>586720.81000000006</v>
-      </c>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
         <v>740</v>
       </c>
       <c r="B741">
         <v>568460.93999999994</v>
       </c>
-      <c r="C741">
-        <v>568460.93999999994</v>
-      </c>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
         <v>741</v>
       </c>
       <c r="B742">
         <v>615313.81999999995</v>
       </c>
-      <c r="C742">
-        <v>615313.81999999995</v>
-      </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
         <v>742</v>
       </c>
       <c r="B743">
         <v>574241.24</v>
       </c>
-      <c r="C743">
-        <v>574241.24</v>
-      </c>
-    </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
         <v>743</v>
       </c>
       <c r="B744">
         <v>568862.26</v>
       </c>
-      <c r="C744">
-        <v>568862.26</v>
-      </c>
-    </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
         <v>744</v>
       </c>
       <c r="B745">
         <v>589880.14</v>
       </c>
-      <c r="C745">
-        <v>589880.14</v>
-      </c>
-    </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
         <v>745</v>
       </c>
       <c r="B746">
         <v>612427.06999999995</v>
       </c>
-      <c r="C746">
-        <v>612427.06999999995</v>
-      </c>
-    </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
         <v>746</v>
       </c>
       <c r="B747">
         <v>592523.36</v>
       </c>
-      <c r="C747">
-        <v>592523.36</v>
-      </c>
-    </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
         <v>747</v>
       </c>
       <c r="B748">
         <v>582826.05000000005</v>
       </c>
-      <c r="C748">
-        <v>582826.05000000005</v>
-      </c>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
         <v>748</v>
       </c>
       <c r="B749">
         <v>431613.1</v>
       </c>
-      <c r="C749">
-        <v>431613.1</v>
-      </c>
-    </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
         <v>749</v>
       </c>
       <c r="B750">
         <v>566653.85</v>
       </c>
-      <c r="C750">
-        <v>566653.85</v>
-      </c>
-    </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
         <v>750</v>
       </c>
       <c r="B751">
         <v>554360.30000000005</v>
       </c>
-      <c r="C751">
-        <v>554360.30000000005</v>
-      </c>
-    </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
         <v>751</v>
       </c>
       <c r="B752">
         <v>564022.36</v>
       </c>
-      <c r="C752">
-        <v>564022.36</v>
-      </c>
-    </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
         <v>752</v>
       </c>
       <c r="B753">
         <v>578154.05000000005</v>
       </c>
-      <c r="C753">
-        <v>578154.05000000005</v>
-      </c>
-    </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
         <v>753</v>
       </c>
       <c r="B754">
         <v>569455.14</v>
       </c>
-      <c r="C754">
-        <v>569455.14</v>
-      </c>
-    </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
         <v>754</v>
       </c>
       <c r="B755">
         <v>567434.61</v>
       </c>
-      <c r="C755">
-        <v>567434.61</v>
-      </c>
-    </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
         <v>755</v>
       </c>
       <c r="B756">
         <v>510292.99</v>
       </c>
-      <c r="C756">
-        <v>510292.99</v>
-      </c>
-    </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
         <v>756</v>
       </c>
       <c r="B757">
         <v>509093.74</v>
       </c>
-      <c r="C757">
-        <v>509093.74</v>
-      </c>
-    </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
         <v>757</v>
       </c>
       <c r="B758">
         <v>504745.21</v>
       </c>
-      <c r="C758">
-        <v>504745.21</v>
-      </c>
-    </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>758</v>
       </c>
       <c r="B759">
         <v>504141.73</v>
       </c>
-      <c r="C759">
-        <v>504141.73</v>
-      </c>
-    </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>759</v>
       </c>
       <c r="B760">
         <v>493231.68</v>
       </c>
-      <c r="C760">
-        <v>493231.68</v>
-      </c>
-    </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>760</v>
       </c>
       <c r="B761">
         <v>475981.97</v>
       </c>
-      <c r="C761">
-        <v>475981.97</v>
-      </c>
-    </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>761</v>
       </c>
       <c r="B762">
         <v>495361.15</v>
       </c>
-      <c r="C762">
-        <v>495361.15</v>
-      </c>
-    </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>762</v>
       </c>
       <c r="B763">
         <v>494759.62</v>
       </c>
-      <c r="C763">
-        <v>494759.62</v>
-      </c>
-    </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>763</v>
       </c>
       <c r="B764">
         <v>498364.08</v>
       </c>
-      <c r="C764">
-        <v>498364.08</v>
-      </c>
-    </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A765" s="1">
         <v>43070</v>
-      </c>
-      <c r="C765">
-        <v>498364.08</v>
       </c>
     </row>
   </sheetData>
